--- a/experiments/new/grid_search/adult_lr_no_fair_results.xlsx
+++ b/experiments/new/grid_search/adult_lr_no_fair_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\new\grid_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56D169F-FB28-4E0A-A0EB-5A3CF7682BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EAD009-9909-49BC-BAC6-5E8D8A193349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8DAC73D-8000-4FCC-9386-3647209DBA71}"/>
   </bookViews>
